--- a/imports/Fraccion.xlsx
+++ b/imports/Fraccion.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\OPERACIÓN\GLOSARIO-SOP-CORRECTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Limpieza\LIMPIEZA_APP\sop_lavado_app\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED9B106-C26F-4557-9BB5-B7752DE4CF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E3E681-033E-4ACB-BD20-B628D0500A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{B8AE8316-DE00-4F18-9EBC-F49DAD0CC8B9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
   <si>
     <t>BD</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>Barrer</t>
-  </si>
-  <si>
-    <t>Aplicar presion media en zonas con exceso de polvo.</t>
   </si>
   <si>
     <t>SE</t>
@@ -203,6 +200,36 @@
   </si>
   <si>
     <t>Reportar de inmediato cualquier falla mecánica</t>
+  </si>
+  <si>
+    <t>NOTAS</t>
+  </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <t>Colocar letreros y avisos en su lugar.</t>
+  </si>
+  <si>
+    <t>Retirar basura y cambiar bolsa del cesto.</t>
+  </si>
+  <si>
+    <t>Quitar polvo de muebles y superficies.</t>
+  </si>
+  <si>
+    <t>Limpiar espejos y vidrios sin dejar marcas.</t>
+  </si>
+  <si>
+    <t>Barrer el piso y juntar residuos.</t>
+  </si>
+  <si>
+    <t>Tallar sanitario, lavabo y accesorios.</t>
+  </si>
+  <si>
+    <t>Trapear el piso con solución preparada.</t>
+  </si>
+  <si>
+    <t>Revisar y rellenar dispensadores y consumibles.</t>
   </si>
 </sst>
 </file>
@@ -235,7 +262,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,8 +299,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -351,11 +390,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -375,6 +436,30 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -387,23 +472,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -755,37 +828,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D9184C-A933-4A6B-AF3A-5224922105C9}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14.46484375" customWidth="1"/>
-    <col min="2" max="2" width="25.59765625" customWidth="1"/>
-    <col min="3" max="3" width="21.06640625" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="2" max="2" width="23.46484375" customWidth="1"/>
+    <col min="3" max="3" width="44.59765625" customWidth="1"/>
+    <col min="7" max="7" width="26.06640625" customWidth="1"/>
+    <col min="9" max="9" width="11.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="H1" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="14"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="20"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -804,14 +881,17 @@
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="G2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -823,19 +903,22 @@
         <v>8</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="6">
         <v>1</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="G3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -854,21 +937,24 @@
       <c r="F4" s="6">
         <v>1</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="G4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -880,14 +966,17 @@
       <c r="F5" s="6">
         <v>1</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="G5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
@@ -899,19 +988,22 @@
         <v>8</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="6">
         <v>1</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="G6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -919,133 +1011,143 @@
         <v>22</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="6">
         <v>1</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="G7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="6">
         <v>1</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="G8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="6">
         <v>1</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="5" t="s">
+      <c r="G9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="4" t="s">
+      <c r="J10" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="I11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="H11" s="5" t="s">
+      <c r="J11" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="I12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="H12" s="5" t="s">
+      <c r="J12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1053,7 +1155,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1061,48 +1163,44 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
     </row>
-    <row r="17" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
     </row>
-    <row r="18" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="19" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="20" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="22" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="23" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="24" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="25" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="26" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="27" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="28" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="29" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="30" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="31" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="32" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="18" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="19" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="20" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="21" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="22" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="23" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="25" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="26" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="27" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="28" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="29" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="30" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="32" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  <conditionalFormatting sqref="J3:J8 J10">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
+  <conditionalFormatting sqref="J11">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I8 I10">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/imports/Fraccion.xlsx
+++ b/imports/Fraccion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Limpieza\LIMPIEZA_APP\sop_lavado_app\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E3E681-033E-4ACB-BD20-B628D0500A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3E2774-19E6-4F2B-85EF-852926142C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{B8AE8316-DE00-4F18-9EBC-F49DAD0CC8B9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
   <si>
     <t>BD</t>
   </si>
@@ -230,6 +230,15 @@
   </si>
   <si>
     <t>Revisar y rellenar dispensadores y consumibles.</t>
+  </si>
+  <si>
+    <t>FR-SA-001</t>
+  </si>
+  <si>
+    <t>Sacudir Elementos</t>
+  </si>
+  <si>
+    <t>Revisar que todos los objetos queden correctamente acomodados.</t>
   </si>
 </sst>
 </file>
@@ -312,7 +321,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -390,33 +399,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -441,18 +428,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -482,7 +457,22 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -831,7 +821,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -840,27 +830,27 @@
     <col min="2" max="2" width="23.46484375" customWidth="1"/>
     <col min="3" max="3" width="44.59765625" customWidth="1"/>
     <col min="7" max="7" width="26.06640625" customWidth="1"/>
-    <col min="9" max="9" width="11.796875" customWidth="1"/>
+    <col min="9" max="9" width="14.265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="14" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="20"/>
+      <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -881,7 +871,7 @@
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="9" t="s">
         <v>55</v>
       </c>
       <c r="I2" s="7" t="s">
@@ -1091,22 +1081,22 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="6">
         <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -1120,12 +1110,27 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="A11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="I11" s="5" t="s">
         <v>44</v>
       </c>

--- a/imports/Fraccion.xlsx
+++ b/imports/Fraccion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Limpieza\LIMPIEZA_APP\sop_lavado_app\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3E2774-19E6-4F2B-85EF-852926142C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFCC495-DD2C-421E-844A-F9F7B8736EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{B8AE8316-DE00-4F18-9EBC-F49DAD0CC8B9}"/>
   </bookViews>
@@ -457,22 +457,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>

--- a/imports/Fraccion.xlsx
+++ b/imports/Fraccion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Limpieza\LIMPIEZA_APP\sop_lavado_app\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFCC495-DD2C-421E-844A-F9F7B8736EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9D9639-85C2-4B63-A7EB-E5098CD8193E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{B8AE8316-DE00-4F18-9EBC-F49DAD0CC8B9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
   <si>
     <t>BD</t>
   </si>
@@ -239,6 +239,24 @@
   </si>
   <si>
     <t>Revisar que todos los objetos queden correctamente acomodados.</t>
+  </si>
+  <si>
+    <t>ACOMODAR</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>FR-TA-001</t>
+  </si>
+  <si>
+    <t>FR-AC-001</t>
+  </si>
+  <si>
+    <t>Lavar Trastes</t>
+  </si>
+  <si>
+    <t>Acomodar Trastes</t>
   </si>
 </sst>
 </file>
@@ -321,7 +339,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -373,37 +391,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -447,10 +439,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -806,7 +795,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -835,7 +824,7 @@
       <c r="I1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="16"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -1124,12 +1113,25 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="A12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="I12" s="5" t="s">
         <v>45</v>
       </c>
@@ -1138,12 +1140,31 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="A13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>

--- a/imports/Fraccion.xlsx
+++ b/imports/Fraccion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Limpieza\LIMPIEZA_APP\sop_lavado_app\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9D9639-85C2-4B63-A7EB-E5098CD8193E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6BCB6C-1633-4532-81BE-9175AC6B870F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{B8AE8316-DE00-4F18-9EBC-F49DAD0CC8B9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="80">
   <si>
     <t>BD</t>
   </si>
@@ -257,6 +257,27 @@
   </si>
   <si>
     <t>Acomodar Trastes</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>MH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOP </t>
+  </si>
+  <si>
+    <t>FR-MS-001</t>
+  </si>
+  <si>
+    <t>Mop Seco</t>
+  </si>
+  <si>
+    <t>FR-MH-001</t>
+  </si>
+  <si>
+    <t>Mop Humedo</t>
   </si>
 </sst>
 </file>
@@ -395,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -441,6 +462,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -794,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D9184C-A933-4A6B-AF3A-5224922105C9}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1167,15 +1195,42 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="A14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="17"/>
+      <c r="I14" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="I15" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
